--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
@@ -534,52 +534,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.56656800261403</v>
+        <v>9.801662666666665</v>
       </c>
       <c r="H2">
-        <v>9.56656800261403</v>
+        <v>29.404988</v>
       </c>
       <c r="I2">
-        <v>0.3906282634637717</v>
+        <v>0.3903913270717663</v>
       </c>
       <c r="J2">
-        <v>0.3906282634637717</v>
+        <v>0.3903913270717663</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.509272308084524</v>
+        <v>0.6054233333333333</v>
       </c>
       <c r="N2">
-        <v>0.509272308084524</v>
+        <v>1.81627</v>
       </c>
       <c r="O2">
-        <v>0.3654538529066822</v>
+        <v>0.3419053608852526</v>
       </c>
       <c r="P2">
-        <v>0.3654538529066822</v>
+        <v>0.3419053608852526</v>
       </c>
       <c r="Q2">
-        <v>4.871988167138801</v>
+        <v>5.934155283862221</v>
       </c>
       <c r="R2">
-        <v>4.871988167138801</v>
+        <v>53.40739755476</v>
       </c>
       <c r="S2">
-        <v>0.1427566039370819</v>
+        <v>0.133476887568945</v>
       </c>
       <c r="T2">
-        <v>0.1427566039370819</v>
+        <v>0.1334768875689449</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.56656800261403</v>
+        <v>9.801662666666665</v>
       </c>
       <c r="H3">
-        <v>9.56656800261403</v>
+        <v>29.404988</v>
       </c>
       <c r="I3">
-        <v>0.3906282634637717</v>
+        <v>0.3903913270717663</v>
       </c>
       <c r="J3">
-        <v>0.3906282634637717</v>
+        <v>0.3903913270717663</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.884261523981998</v>
+        <v>1.165310333333333</v>
       </c>
       <c r="N3">
-        <v>0.884261523981998</v>
+        <v>3.495931</v>
       </c>
       <c r="O3">
-        <v>0.6345461470933177</v>
+        <v>0.6580946391147473</v>
       </c>
       <c r="P3">
-        <v>0.6345461470933177</v>
+        <v>0.6580946391147473</v>
       </c>
       <c r="Q3">
-        <v>8.4593480012689</v>
+        <v>11.42197878931422</v>
       </c>
       <c r="R3">
-        <v>8.4593480012689</v>
+        <v>102.797809103828</v>
       </c>
       <c r="S3">
-        <v>0.2478716595266897</v>
+        <v>0.2569144395028213</v>
       </c>
       <c r="T3">
-        <v>0.2478716595266897</v>
+        <v>0.2569144395028213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.31084725018825</v>
+        <v>5.350150333333333</v>
       </c>
       <c r="H4">
-        <v>5.31084725018825</v>
+        <v>16.050451</v>
       </c>
       <c r="I4">
-        <v>0.2168559339457489</v>
+        <v>0.2130916314602937</v>
       </c>
       <c r="J4">
-        <v>0.2168559339457489</v>
+        <v>0.2130916314602937</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.509272308084524</v>
+        <v>0.6054233333333333</v>
       </c>
       <c r="N4">
-        <v>0.509272308084524</v>
+        <v>1.81627</v>
       </c>
       <c r="O4">
-        <v>0.3654538529066822</v>
+        <v>0.3419053608852526</v>
       </c>
       <c r="P4">
-        <v>0.3654538529066822</v>
+        <v>0.3419053608852526</v>
       </c>
       <c r="Q4">
-        <v>2.704667436987718</v>
+        <v>3.239105848641111</v>
       </c>
       <c r="R4">
-        <v>2.704667436987718</v>
+        <v>29.15195263777</v>
       </c>
       <c r="S4">
-        <v>0.07925083658615092</v>
+        <v>0.07285717115605898</v>
       </c>
       <c r="T4">
-        <v>0.07925083658615092</v>
+        <v>0.07285717115605897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.31084725018825</v>
+        <v>5.350150333333333</v>
       </c>
       <c r="H5">
-        <v>5.31084725018825</v>
+        <v>16.050451</v>
       </c>
       <c r="I5">
-        <v>0.2168559339457489</v>
+        <v>0.2130916314602937</v>
       </c>
       <c r="J5">
-        <v>0.2168559339457489</v>
+        <v>0.2130916314602937</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.884261523981998</v>
+        <v>1.165310333333333</v>
       </c>
       <c r="N5">
-        <v>0.884261523981998</v>
+        <v>3.495931</v>
       </c>
       <c r="O5">
-        <v>0.6345461470933177</v>
+        <v>0.6580946391147473</v>
       </c>
       <c r="P5">
-        <v>0.6345461470933177</v>
+        <v>0.6580946391147473</v>
       </c>
       <c r="Q5">
-        <v>4.696177883087065</v>
+        <v>6.23458546832011</v>
       </c>
       <c r="R5">
-        <v>4.696177883087065</v>
+        <v>56.11126921488099</v>
       </c>
       <c r="S5">
-        <v>0.137605097359598</v>
+        <v>0.1402344603042347</v>
       </c>
       <c r="T5">
-        <v>0.137605097359598</v>
+        <v>0.1402344603042347</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.46777726457758</v>
+        <v>3.545239</v>
       </c>
       <c r="H6">
-        <v>3.46777726457758</v>
+        <v>10.635717</v>
       </c>
       <c r="I6">
-        <v>0.141598513758638</v>
+        <v>0.1412036513665554</v>
       </c>
       <c r="J6">
-        <v>0.141598513758638</v>
+        <v>0.1412036513665554</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.509272308084524</v>
+        <v>0.6054233333333333</v>
       </c>
       <c r="N6">
-        <v>0.509272308084524</v>
+        <v>1.81627</v>
       </c>
       <c r="O6">
-        <v>0.3654538529066822</v>
+        <v>0.3419053608852526</v>
       </c>
       <c r="P6">
-        <v>0.3654538529066822</v>
+        <v>0.3419053608852526</v>
       </c>
       <c r="Q6">
-        <v>1.766042931454461</v>
+        <v>2.146370412843333</v>
       </c>
       <c r="R6">
-        <v>1.766042931454461</v>
+        <v>19.31733371559</v>
       </c>
       <c r="S6">
-        <v>0.0517477224189541</v>
+        <v>0.04827828537879753</v>
       </c>
       <c r="T6">
-        <v>0.0517477224189541</v>
+        <v>0.04827828537879753</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.46777726457758</v>
+        <v>3.545239</v>
       </c>
       <c r="H7">
-        <v>3.46777726457758</v>
+        <v>10.635717</v>
       </c>
       <c r="I7">
-        <v>0.141598513758638</v>
+        <v>0.1412036513665554</v>
       </c>
       <c r="J7">
-        <v>0.141598513758638</v>
+        <v>0.1412036513665554</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.884261523981998</v>
+        <v>1.165310333333333</v>
       </c>
       <c r="N7">
-        <v>0.884261523981998</v>
+        <v>3.495931</v>
       </c>
       <c r="O7">
-        <v>0.6345461470933177</v>
+        <v>0.6580946391147473</v>
       </c>
       <c r="P7">
-        <v>0.6345461470933177</v>
+        <v>0.6580946391147473</v>
       </c>
       <c r="Q7">
-        <v>3.066422008805495</v>
+        <v>4.131303640836333</v>
       </c>
       <c r="R7">
-        <v>3.066422008805495</v>
+        <v>37.181732767527</v>
       </c>
       <c r="S7">
-        <v>0.08985079133968385</v>
+        <v>0.0929253659877579</v>
       </c>
       <c r="T7">
-        <v>0.08985079133968385</v>
+        <v>0.09292536598775787</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.03570556476867</v>
+        <v>5.087578</v>
       </c>
       <c r="H8">
-        <v>5.03570556476867</v>
+        <v>15.262734</v>
       </c>
       <c r="I8">
-        <v>0.2056211715155255</v>
+        <v>0.2026336137597937</v>
       </c>
       <c r="J8">
-        <v>0.2056211715155255</v>
+        <v>0.2026336137597937</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.509272308084524</v>
+        <v>0.6054233333333333</v>
       </c>
       <c r="N8">
-        <v>0.509272308084524</v>
+        <v>1.81627</v>
       </c>
       <c r="O8">
-        <v>0.3654538529066822</v>
+        <v>0.3419053608852526</v>
       </c>
       <c r="P8">
-        <v>0.3654538529066822</v>
+        <v>0.3419053608852526</v>
       </c>
       <c r="Q8">
-        <v>2.564545395803822</v>
+        <v>3.080138431353333</v>
       </c>
       <c r="R8">
-        <v>2.564545395803822</v>
+        <v>27.72124588218</v>
       </c>
       <c r="S8">
-        <v>0.07514504936953452</v>
+        <v>0.06928151884002516</v>
       </c>
       <c r="T8">
-        <v>0.07514504936953452</v>
+        <v>0.06928151884002515</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.03570556476867</v>
+        <v>5.087578</v>
       </c>
       <c r="H9">
-        <v>5.03570556476867</v>
+        <v>15.262734</v>
       </c>
       <c r="I9">
-        <v>0.2056211715155255</v>
+        <v>0.2026336137597937</v>
       </c>
       <c r="J9">
-        <v>0.2056211715155255</v>
+        <v>0.2026336137597937</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.884261523981998</v>
+        <v>1.165310333333333</v>
       </c>
       <c r="N9">
-        <v>0.884261523981998</v>
+        <v>3.495931</v>
       </c>
       <c r="O9">
-        <v>0.6345461470933177</v>
+        <v>0.6580946391147473</v>
       </c>
       <c r="P9">
-        <v>0.6345461470933177</v>
+        <v>0.6580946391147473</v>
       </c>
       <c r="Q9">
-        <v>4.452880677026972</v>
+        <v>5.928607215039333</v>
       </c>
       <c r="R9">
-        <v>4.452880677026972</v>
+        <v>53.35746493535399</v>
       </c>
       <c r="S9">
-        <v>0.1304761221459909</v>
+        <v>0.1333520949197685</v>
       </c>
       <c r="T9">
-        <v>0.1304761221459909</v>
+        <v>0.1333520949197685</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.10931140189017</v>
+        <v>1.322645666666667</v>
       </c>
       <c r="H10">
-        <v>1.10931140189017</v>
+        <v>3.967937</v>
       </c>
       <c r="I10">
-        <v>0.04529611731631593</v>
+        <v>0.05267977634159087</v>
       </c>
       <c r="J10">
-        <v>0.04529611731631593</v>
+        <v>0.05267977634159086</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.509272308084524</v>
+        <v>0.6054233333333333</v>
       </c>
       <c r="N10">
-        <v>0.509272308084524</v>
+        <v>1.81627</v>
       </c>
       <c r="O10">
-        <v>0.3654538529066822</v>
+        <v>0.3419053608852526</v>
       </c>
       <c r="P10">
-        <v>0.3654538529066822</v>
+        <v>0.3419053608852526</v>
       </c>
       <c r="Q10">
-        <v>0.5649415780250858</v>
+        <v>0.8007605483322222</v>
       </c>
       <c r="R10">
-        <v>0.5649415780250858</v>
+        <v>7.206844934989999</v>
       </c>
       <c r="S10">
-        <v>0.01655364059496074</v>
+        <v>0.01801149794142602</v>
       </c>
       <c r="T10">
-        <v>0.01655364059496074</v>
+        <v>0.01801149794142601</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.10931140189017</v>
+        <v>1.322645666666667</v>
       </c>
       <c r="H11">
-        <v>1.10931140189017</v>
+        <v>3.967937</v>
       </c>
       <c r="I11">
-        <v>0.04529611731631593</v>
+        <v>0.05267977634159087</v>
       </c>
       <c r="J11">
-        <v>0.04529611731631593</v>
+        <v>0.05267977634159086</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.884261523981998</v>
+        <v>1.165310333333333</v>
       </c>
       <c r="N11">
-        <v>0.884261523981998</v>
+        <v>3.495931</v>
       </c>
       <c r="O11">
-        <v>0.6345461470933177</v>
+        <v>0.6580946391147473</v>
       </c>
       <c r="P11">
-        <v>0.6345461470933177</v>
+        <v>0.6580946391147473</v>
       </c>
       <c r="Q11">
-        <v>0.9809213908060084</v>
+        <v>1.541292662705222</v>
       </c>
       <c r="R11">
-        <v>0.9809213908060084</v>
+        <v>13.871633964347</v>
       </c>
       <c r="S11">
-        <v>0.02874247672135518</v>
+        <v>0.03466827840016485</v>
       </c>
       <c r="T11">
-        <v>0.02874247672135518</v>
+        <v>0.03466827840016484</v>
       </c>
     </row>
   </sheetData>
